--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcombiths/Documents/GitHub/ipa_features/src/ipa_features/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590189D-2A19-A944-A733-E529076C4680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B378D7-6154-FB45-AC7E-92B7AB7B2916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="16480" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1176">
   <si>
     <t>Description</t>
   </si>
@@ -3258,9 +3258,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Base-Diacritic</t>
-  </si>
-  <si>
     <t>base</t>
   </si>
   <si>
@@ -3270,9 +3267,6 @@
     <t>diacritic_left</t>
   </si>
   <si>
-    <t>diacritic</t>
-  </si>
-  <si>
     <t>͡</t>
   </si>
   <si>
@@ -3562,6 +3556,15 @@
   </si>
   <si>
     <t>0x2205</t>
+  </si>
+  <si>
+    <t>suprasegmental</t>
+  </si>
+  <si>
+    <t>diacritic_role-switcher</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
 </sst>
 </file>
@@ -3805,7 +3808,7 @@
     <tableColumn id="3" xr3:uid="{0372B447-53E0-41B2-A93B-5807AB04D692}" name="Symbol-Display" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{FFFB61BC-8966-4097-95BC-8A6483449E3B}" name="Unicode" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{07635DB3-DC33-4FF8-9450-655379E23FE5}" name="Type" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{009AB40E-CD24-4EB5-9EE7-7E4141EF1BE3}" name="Base-Diacritic" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{009AB40E-CD24-4EB5-9EE7-7E4141EF1BE3}" name="Role" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{8BDE5278-4E71-4B7E-9554-8C504D4BF9FF}" name="Voice">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("Voiceless",A2)),0, IF(ISNUMBER(SEARCH("Voiced",A2)),1,""))</calculatedColumnFormula>
     </tableColumn>
@@ -3862,9 +3865,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3902,7 +3905,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4008,7 +4011,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4150,7 +4153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4162,7 +4165,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A246" sqref="A246"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4191,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4200,7 +4203,7 @@
         <v>1021</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1073</v>
+        <v>1175</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1022</v>
@@ -4274,7 +4277,7 @@
         <v>1010</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H14" si="0">IF(ISNUMBER(SEARCH("Voiceless",A2)),0, IF(ISNUMBER(SEARCH("Voiced",A2)),1,""))</f>
@@ -4324,7 +4327,7 @@
         <v>1010</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
@@ -4374,7 +4377,7 @@
         <v>1010</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -4424,7 +4427,7 @@
         <v>1010</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -4474,7 +4477,7 @@
         <v>1010</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -4522,7 +4525,7 @@
         <v>1010</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -4570,7 +4573,7 @@
         <v>1010</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
@@ -4618,7 +4621,7 @@
         <v>1010</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -4666,7 +4669,7 @@
         <v>1010</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -4716,7 +4719,7 @@
         <v>1010</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -4751,22 +4754,22 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1170</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -4804,7 +4807,7 @@
         <v>1010</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -4852,7 +4855,7 @@
         <v>1010</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -4900,7 +4903,7 @@
         <v>1010</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4946,7 +4949,7 @@
         <v>1010</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4991,7 +4994,7 @@
         <v>1010</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:H48" si="6">IF(ISNUMBER(SEARCH("Voiceless",A17)),0, IF(ISNUMBER(SEARCH("Voiced",A17)),1,""))</f>
@@ -5041,7 +5044,7 @@
         <v>1010</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
@@ -5089,7 +5092,7 @@
         <v>1010</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
@@ -5139,7 +5142,7 @@
         <v>1010</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
@@ -5187,7 +5190,7 @@
         <v>1010</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
@@ -5235,7 +5238,7 @@
         <v>1010</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
@@ -5285,7 +5288,7 @@
         <v>1010</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
@@ -5333,7 +5336,7 @@
         <v>1010</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
@@ -5381,7 +5384,7 @@
         <v>1010</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
@@ -5429,7 +5432,7 @@
         <v>1010</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
@@ -5479,7 +5482,7 @@
         <v>1010</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
@@ -5529,7 +5532,7 @@
         <v>1010</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
@@ -5579,7 +5582,7 @@
         <v>1010</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H29">
         <f t="shared" si="6"/>
@@ -5629,7 +5632,7 @@
         <v>1010</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H30">
         <f t="shared" si="6"/>
@@ -5679,7 +5682,7 @@
         <v>1010</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H31">
         <f t="shared" si="6"/>
@@ -5729,7 +5732,7 @@
         <v>1010</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H32">
         <f t="shared" si="6"/>
@@ -5779,7 +5782,7 @@
         <v>1010</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H33">
         <f t="shared" si="6"/>
@@ -5829,7 +5832,7 @@
         <v>1010</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H34">
         <f t="shared" si="6"/>
@@ -5877,7 +5880,7 @@
         <v>1010</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H35">
         <f t="shared" si="6"/>
@@ -5925,7 +5928,7 @@
         <v>1010</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
@@ -5973,7 +5976,7 @@
         <v>1010</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H37">
         <f t="shared" si="6"/>
@@ -6021,7 +6024,7 @@
         <v>1010</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H38">
         <f t="shared" si="6"/>
@@ -6069,7 +6072,7 @@
         <v>1010</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H39">
         <f t="shared" si="6"/>
@@ -6117,7 +6120,7 @@
         <v>1010</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H40">
         <f t="shared" si="6"/>
@@ -6165,7 +6168,7 @@
         <v>1010</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H41">
         <f t="shared" si="6"/>
@@ -6216,7 +6219,7 @@
         <v>1010</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H42">
         <f t="shared" si="6"/>
@@ -6264,7 +6267,7 @@
         <v>1010</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H43">
         <f t="shared" si="6"/>
@@ -6312,7 +6315,7 @@
         <v>1010</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H44">
         <f t="shared" si="6"/>
@@ -6365,7 +6368,7 @@
         <v>1010</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H45">
         <f t="shared" si="6"/>
@@ -6413,7 +6416,7 @@
         <v>1010</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H46">
         <f t="shared" si="6"/>
@@ -6461,7 +6464,7 @@
         <v>1010</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H47">
         <f t="shared" si="6"/>
@@ -6509,7 +6512,7 @@
         <v>1010</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H48">
         <f t="shared" si="6"/>
@@ -6557,7 +6560,7 @@
         <v>1010</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H49">
         <f t="shared" ref="H49:H70" si="11">IF(ISNUMBER(SEARCH("Voiceless",A49)),0, IF(ISNUMBER(SEARCH("Voiced",A49)),1,""))</f>
@@ -6605,7 +6608,7 @@
         <v>1010</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
@@ -6653,7 +6656,7 @@
         <v>1010</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H51">
         <f t="shared" si="11"/>
@@ -6701,7 +6704,7 @@
         <v>1010</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H52">
         <f t="shared" si="11"/>
@@ -6749,7 +6752,7 @@
         <v>1010</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H53">
         <f t="shared" si="11"/>
@@ -6797,7 +6800,7 @@
         <v>1010</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H54">
         <f t="shared" si="11"/>
@@ -6845,7 +6848,7 @@
         <v>1010</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H55">
         <f t="shared" si="11"/>
@@ -6895,7 +6898,7 @@
         <v>1010</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H56">
         <f t="shared" si="11"/>
@@ -6945,7 +6948,7 @@
         <v>1010</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H57">
         <f t="shared" si="11"/>
@@ -6993,7 +6996,7 @@
         <v>1010</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H58">
         <f t="shared" si="11"/>
@@ -7041,7 +7044,7 @@
         <v>1010</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H59">
         <f t="shared" si="11"/>
@@ -7089,7 +7092,7 @@
         <v>1010</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H60">
         <f t="shared" si="11"/>
@@ -7137,7 +7140,7 @@
         <v>1010</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H61">
         <f t="shared" si="11"/>
@@ -7188,7 +7191,7 @@
         <v>1010</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H62">
         <f t="shared" si="11"/>
@@ -7239,7 +7242,7 @@
         <v>1010</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H63">
         <f t="shared" si="11"/>
@@ -7293,7 +7296,7 @@
         <v>1010</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H64">
         <f t="shared" si="11"/>
@@ -7347,7 +7350,7 @@
         <v>1010</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H65">
         <f t="shared" si="11"/>
@@ -7403,7 +7406,7 @@
         <v>1010</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H66">
         <f t="shared" si="11"/>
@@ -7457,7 +7460,7 @@
         <v>1010</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H67">
         <f t="shared" si="11"/>
@@ -7511,7 +7514,7 @@
         <v>1010</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H68">
         <f t="shared" si="11"/>
@@ -7565,7 +7568,7 @@
         <v>1010</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
@@ -7616,7 +7619,7 @@
         <v>1010</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
@@ -7669,7 +7672,7 @@
         <v>1010</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7719,7 +7722,7 @@
         <v>1010</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72:H103" si="17">IF(ISNUMBER(SEARCH("Voiceless",A72)),0, IF(ISNUMBER(SEARCH("Voiced",A72)),1,""))</f>
@@ -7770,7 +7773,7 @@
         <v>1010</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H73">
         <f t="shared" si="17"/>
@@ -7821,7 +7824,7 @@
         <v>1010</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H74">
         <f t="shared" si="17"/>
@@ -7872,7 +7875,7 @@
         <v>1010</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H75">
         <f t="shared" si="17"/>
@@ -7920,7 +7923,7 @@
         <v>1010</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H76">
         <f t="shared" si="17"/>
@@ -7973,7 +7976,7 @@
         <v>1010</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H77">
         <f t="shared" si="17"/>
@@ -8024,7 +8027,7 @@
         <v>1010</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H78">
         <f t="shared" si="17"/>
@@ -8075,7 +8078,7 @@
         <v>1010</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H79">
         <f t="shared" si="17"/>
@@ -8128,7 +8131,7 @@
         <v>1010</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H80">
         <f t="shared" si="17"/>
@@ -8171,7 +8174,7 @@
         <v>1011</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="17"/>
@@ -8213,7 +8216,7 @@
         <v>1011</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="17"/>
@@ -8255,7 +8258,7 @@
         <v>1011</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="17"/>
@@ -8298,7 +8301,7 @@
         <v>1011</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="17"/>
@@ -8340,7 +8343,7 @@
         <v>1011</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="17"/>
@@ -8383,7 +8386,7 @@
         <v>1011</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="17"/>
@@ -8425,7 +8428,7 @@
         <v>1012</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H87">
         <f t="shared" si="17"/>
@@ -8468,7 +8471,7 @@
         <v>1012</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H88">
         <f t="shared" si="17"/>
@@ -8511,7 +8514,7 @@
         <v>1012</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H89">
         <f t="shared" si="17"/>
@@ -8554,7 +8557,7 @@
         <v>1012</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H90">
         <f t="shared" si="17"/>
@@ -8597,7 +8600,7 @@
         <v>1012</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H91">
         <f t="shared" si="17"/>
@@ -8640,7 +8643,7 @@
         <v>1013</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="17"/>
@@ -8699,7 +8702,7 @@
         <v>1013</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="17"/>
@@ -8758,7 +8761,7 @@
         <v>1013</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="17"/>
@@ -8817,7 +8820,7 @@
         <v>1013</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="17"/>
@@ -8876,7 +8879,7 @@
         <v>1013</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="17"/>
@@ -8935,7 +8938,7 @@
         <v>1013</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="17"/>
@@ -8994,7 +8997,7 @@
         <v>1013</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="17"/>
@@ -9053,7 +9056,7 @@
         <v>1013</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="17"/>
@@ -9112,7 +9115,7 @@
         <v>1013</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="17"/>
@@ -9171,7 +9174,7 @@
         <v>1013</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="17"/>
@@ -9230,7 +9233,7 @@
         <v>1013</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="17"/>
@@ -9289,7 +9292,7 @@
         <v>1013</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="17"/>
@@ -9348,7 +9351,7 @@
         <v>1013</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" ref="H104:H131" si="26">IF(ISNUMBER(SEARCH("Voiceless",A104)),0, IF(ISNUMBER(SEARCH("Voiced",A104)),1,""))</f>
@@ -9407,7 +9410,7 @@
         <v>1013</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="26"/>
@@ -9466,7 +9469,7 @@
         <v>1013</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="26"/>
@@ -9525,7 +9528,7 @@
         <v>1013</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="26"/>
@@ -9584,7 +9587,7 @@
         <v>1013</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="26"/>
@@ -9643,7 +9646,7 @@
         <v>1013</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="26"/>
@@ -9702,7 +9705,7 @@
         <v>1013</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="26"/>
@@ -9761,7 +9764,7 @@
         <v>1013</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="26"/>
@@ -9820,7 +9823,7 @@
         <v>1013</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="26"/>
@@ -9879,7 +9882,7 @@
         <v>1013</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="26"/>
@@ -9938,7 +9941,7 @@
         <v>1013</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="26"/>
@@ -9997,7 +10000,7 @@
         <v>1013</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="26"/>
@@ -10056,7 +10059,7 @@
         <v>1013</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="26"/>
@@ -10115,7 +10118,7 @@
         <v>1013</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="26"/>
@@ -10174,7 +10177,7 @@
         <v>1013</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="26"/>
@@ -10233,7 +10236,7 @@
         <v>1013</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="26"/>
@@ -10292,7 +10295,7 @@
         <v>1013</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="26"/>
@@ -10351,7 +10354,7 @@
         <v>1013</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="26"/>
@@ -10410,7 +10413,7 @@
         <v>1014</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1077</v>
+        <v>1173</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="26"/>
@@ -10437,7 +10440,7 @@
         <v>1014</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1077</v>
+        <v>1173</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="26"/>
@@ -10464,7 +10467,7 @@
         <v>1014</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="26"/>
@@ -10479,7 +10482,7 @@
         <v>396</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>876</v>
@@ -10491,7 +10494,7 @@
         <v>1014</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="26"/>
@@ -10506,7 +10509,7 @@
         <v>398</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>877</v>
@@ -10518,7 +10521,7 @@
         <v>1014</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="26"/>
@@ -10545,7 +10548,7 @@
         <v>1014</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1077</v>
+        <v>1173</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="26"/>
@@ -10572,7 +10575,7 @@
         <v>1014</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1077</v>
+        <v>1173</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="26"/>
@@ -10599,7 +10602,7 @@
         <v>1014</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="26"/>
@@ -10626,7 +10629,7 @@
         <v>1014</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1075</v>
+        <v>1173</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="26"/>
@@ -10641,7 +10644,7 @@
         <v>414</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>880</v>
@@ -10653,7 +10656,7 @@
         <v>1017</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="26"/>
@@ -10668,7 +10671,7 @@
         <v>414</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>881</v>
@@ -10680,7 +10683,7 @@
         <v>1017</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" ref="H132:H195" si="27">IF(ISNUMBER(SEARCH("Voiceless",A132)),0, IF(ISNUMBER(SEARCH("Voiced",A132)),1,""))</f>
@@ -10695,7 +10698,7 @@
         <v>419</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>882</v>
@@ -10707,7 +10710,7 @@
         <v>1017</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="27"/>
@@ -10722,7 +10725,7 @@
         <v>422</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>883</v>
@@ -10734,7 +10737,7 @@
         <v>1017</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="27"/>
@@ -10749,7 +10752,7 @@
         <v>425</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>884</v>
@@ -10761,7 +10764,7 @@
         <v>1017</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="27"/>
@@ -10774,7 +10777,7 @@
         <v>427</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>885</v>
@@ -10786,7 +10789,7 @@
         <v>1017</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="27"/>
@@ -10801,7 +10804,7 @@
         <v>430</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>886</v>
@@ -10813,7 +10816,7 @@
         <v>1017</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="27"/>
@@ -10828,7 +10831,7 @@
         <v>433</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>887</v>
@@ -10840,7 +10843,7 @@
         <v>1017</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="27"/>
@@ -10855,7 +10858,7 @@
         <v>436</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>888</v>
@@ -10867,7 +10870,7 @@
         <v>1017</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="27"/>
@@ -10882,7 +10885,7 @@
         <v>439</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>889</v>
@@ -10894,7 +10897,7 @@
         <v>1017</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="27"/>
@@ -10909,7 +10912,7 @@
         <v>442</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>890</v>
@@ -10921,7 +10924,7 @@
         <v>1017</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="27"/>
@@ -10936,7 +10939,7 @@
         <v>445</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>891</v>
@@ -10948,7 +10951,7 @@
         <v>1017</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="27"/>
@@ -10963,7 +10966,7 @@
         <v>448</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>892</v>
@@ -10975,7 +10978,7 @@
         <v>1017</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="27"/>
@@ -10990,7 +10993,7 @@
         <v>451</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>893</v>
@@ -11002,7 +11005,7 @@
         <v>1017</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="27"/>
@@ -11017,7 +11020,7 @@
         <v>451</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>894</v>
@@ -11029,7 +11032,7 @@
         <v>1017</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="27"/>
@@ -11044,7 +11047,7 @@
         <v>456</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>895</v>
@@ -11056,7 +11059,7 @@
         <v>1017</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="27"/>
@@ -11071,7 +11074,7 @@
         <v>459</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>896</v>
@@ -11083,7 +11086,7 @@
         <v>1017</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="27"/>
@@ -11098,7 +11101,7 @@
         <v>462</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>897</v>
@@ -11110,7 +11113,7 @@
         <v>1017</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="27"/>
@@ -11125,7 +11128,7 @@
         <v>465</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>898</v>
@@ -11137,7 +11140,7 @@
         <v>1017</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="27"/>
@@ -11152,7 +11155,7 @@
         <v>468</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>899</v>
@@ -11164,7 +11167,7 @@
         <v>1017</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="27"/>
@@ -11179,7 +11182,7 @@
         <v>471</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>900</v>
@@ -11191,7 +11194,7 @@
         <v>1017</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="27"/>
@@ -11206,7 +11209,7 @@
         <v>474</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>901</v>
@@ -11218,7 +11221,7 @@
         <v>1017</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="27"/>
@@ -11233,7 +11236,7 @@
         <v>477</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>902</v>
@@ -11245,7 +11248,7 @@
         <v>1017</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="27"/>
@@ -11260,7 +11263,7 @@
         <v>480</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>903</v>
@@ -11272,7 +11275,7 @@
         <v>1017</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="27"/>
@@ -11287,7 +11290,7 @@
         <v>483</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>904</v>
@@ -11299,7 +11302,7 @@
         <v>1017</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="27"/>
@@ -11314,7 +11317,7 @@
         <v>486</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>905</v>
@@ -11326,7 +11329,7 @@
         <v>1017</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>1075</v>
+        <v>1174</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="27"/>
@@ -11341,7 +11344,7 @@
         <v>489</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>906</v>
@@ -11353,7 +11356,7 @@
         <v>1018</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="27"/>
@@ -11368,7 +11371,7 @@
         <v>492</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>907</v>
@@ -11380,7 +11383,7 @@
         <v>1018</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="27"/>
@@ -11395,7 +11398,7 @@
         <v>495</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>908</v>
@@ -11407,7 +11410,7 @@
         <v>1018</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="27"/>
@@ -11422,7 +11425,7 @@
         <v>498</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>909</v>
@@ -11434,7 +11437,7 @@
         <v>1018</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H160">
         <f t="shared" si="27"/>
@@ -11449,7 +11452,7 @@
         <v>501</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>910</v>
@@ -11461,7 +11464,7 @@
         <v>1018</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H161">
         <f t="shared" si="27"/>
@@ -11476,7 +11479,7 @@
         <v>504</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>911</v>
@@ -11488,7 +11491,7 @@
         <v>1018</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="27"/>
@@ -11503,7 +11506,7 @@
         <v>507</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>912</v>
@@ -11515,7 +11518,7 @@
         <v>1018</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="27"/>
@@ -11530,7 +11533,7 @@
         <v>510</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>913</v>
@@ -11542,7 +11545,7 @@
         <v>1018</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="27"/>
@@ -11557,7 +11560,7 @@
         <v>513</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>914</v>
@@ -11569,7 +11572,7 @@
         <v>1018</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="27"/>
@@ -11584,7 +11587,7 @@
         <v>516</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>915</v>
@@ -11596,7 +11599,7 @@
         <v>1018</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="27"/>
@@ -11611,7 +11614,7 @@
         <v>519</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>916</v>
@@ -11623,7 +11626,7 @@
         <v>1018</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H167">
         <f t="shared" si="27"/>
@@ -11638,7 +11641,7 @@
         <v>522</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>917</v>
@@ -11650,7 +11653,7 @@
         <v>1018</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="27"/>
@@ -11665,7 +11668,7 @@
         <v>525</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>918</v>
@@ -11677,7 +11680,7 @@
         <v>1018</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="27"/>
@@ -11692,7 +11695,7 @@
         <v>528</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>919</v>
@@ -11704,7 +11707,7 @@
         <v>1018</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="27"/>
@@ -11719,7 +11722,7 @@
         <v>531</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>920</v>
@@ -11731,7 +11734,7 @@
         <v>1018</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H171">
         <f t="shared" si="27"/>
@@ -11746,7 +11749,7 @@
         <v>534</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>921</v>
@@ -11758,7 +11761,7 @@
         <v>1018</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="27"/>
@@ -11773,7 +11776,7 @@
         <v>537</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>922</v>
@@ -11785,7 +11788,7 @@
         <v>1018</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="27"/>
@@ -11800,7 +11803,7 @@
         <v>540</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>923</v>
@@ -11812,7 +11815,7 @@
         <v>1018</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="27"/>
@@ -11827,7 +11830,7 @@
         <v>543</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>924</v>
@@ -11839,7 +11842,7 @@
         <v>1018</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="27"/>
@@ -11854,7 +11857,7 @@
         <v>546</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>925</v>
@@ -11866,7 +11869,7 @@
         <v>1018</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="27"/>
@@ -11881,7 +11884,7 @@
         <v>549</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>926</v>
@@ -11893,7 +11896,7 @@
         <v>1018</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="27"/>
@@ -11908,7 +11911,7 @@
         <v>552</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>927</v>
@@ -11920,7 +11923,7 @@
         <v>1018</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="27"/>
@@ -11935,7 +11938,7 @@
         <v>555</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>928</v>
@@ -11947,7 +11950,7 @@
         <v>1018</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="27"/>
@@ -11962,7 +11965,7 @@
         <v>557</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>929</v>
@@ -11974,7 +11977,7 @@
         <v>1018</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="27"/>
@@ -11989,7 +11992,7 @@
         <v>560</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>930</v>
@@ -12001,7 +12004,7 @@
         <v>1018</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="27"/>
@@ -12016,7 +12019,7 @@
         <v>562</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>931</v>
@@ -12028,7 +12031,7 @@
         <v>1018</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="27"/>
@@ -12043,7 +12046,7 @@
         <v>565</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>932</v>
@@ -12055,7 +12058,7 @@
         <v>1019</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="27"/>
@@ -12070,7 +12073,7 @@
         <v>568</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>933</v>
@@ -12082,7 +12085,7 @@
         <v>1019</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="27"/>
@@ -12097,7 +12100,7 @@
         <v>571</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>934</v>
@@ -12109,7 +12112,7 @@
         <v>1019</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="27"/>
@@ -12124,7 +12127,7 @@
         <v>574</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>935</v>
@@ -12136,7 +12139,7 @@
         <v>1019</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="27"/>
@@ -12151,7 +12154,7 @@
         <v>577</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>936</v>
@@ -12163,7 +12166,7 @@
         <v>1019</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="27"/>
@@ -12178,7 +12181,7 @@
         <v>937</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>938</v>
@@ -12190,7 +12193,7 @@
         <v>1019</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="27"/>
@@ -12205,7 +12208,7 @@
         <v>582</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>939</v>
@@ -12217,7 +12220,7 @@
         <v>1019</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="27"/>
@@ -12228,7 +12231,7 @@
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>940</v>
@@ -12240,7 +12243,7 @@
         <v>1019</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="27"/>
@@ -12251,7 +12254,7 @@
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>941</v>
@@ -12263,7 +12266,7 @@
         <v>1019</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="27"/>
@@ -12274,7 +12277,7 @@
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>942</v>
@@ -12286,7 +12289,7 @@
         <v>1019</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="27"/>
@@ -12301,7 +12304,7 @@
         <v>588</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>943</v>
@@ -12313,7 +12316,7 @@
         <v>1019</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="27"/>
@@ -12340,7 +12343,7 @@
         <v>1019</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="27"/>
@@ -12367,7 +12370,7 @@
         <v>1019</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" si="27"/>
@@ -12394,7 +12397,7 @@
         <v>1019</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" ref="H196:H259" si="28">IF(ISNUMBER(SEARCH("Voiceless",A196)),0, IF(ISNUMBER(SEARCH("Voiced",A196)),1,""))</f>
@@ -12421,7 +12424,7 @@
         <v>1019</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="28"/>
@@ -12436,7 +12439,7 @@
         <v>603</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>948</v>
@@ -12448,7 +12451,7 @@
         <v>1019</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H198" t="str">
         <f t="shared" si="28"/>
@@ -12463,7 +12466,7 @@
         <v>606</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>949</v>
@@ -12475,7 +12478,7 @@
         <v>1019</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H199" t="str">
         <f t="shared" si="28"/>
@@ -12490,7 +12493,7 @@
         <v>609</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>950</v>
@@ -12502,7 +12505,7 @@
         <v>1019</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H200" t="str">
         <f t="shared" si="28"/>
@@ -12517,7 +12520,7 @@
         <v>612</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>951</v>
@@ -12529,7 +12532,7 @@
         <v>1019</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H201" t="str">
         <f t="shared" si="28"/>
@@ -12544,7 +12547,7 @@
         <v>615</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>952</v>
@@ -12556,7 +12559,7 @@
         <v>1019</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H202" t="str">
         <f t="shared" si="28"/>
@@ -12571,7 +12574,7 @@
         <v>618</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>953</v>
@@ -12583,7 +12586,7 @@
         <v>1019</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H203" t="str">
         <f t="shared" si="28"/>
@@ -12598,7 +12601,7 @@
         <v>621</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>954</v>
@@ -12610,7 +12613,7 @@
         <v>1019</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H204" t="str">
         <f t="shared" si="28"/>
@@ -12625,7 +12628,7 @@
         <v>624</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>955</v>
@@ -12637,7 +12640,7 @@
         <v>1019</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H205" t="str">
         <f t="shared" si="28"/>
@@ -12652,7 +12655,7 @@
         <v>627</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>956</v>
@@ -12664,7 +12667,7 @@
         <v>1019</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H206" t="str">
         <f t="shared" si="28"/>
@@ -12691,7 +12694,7 @@
         <v>1020</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H207">
         <f t="shared" si="28"/>
@@ -12718,7 +12721,7 @@
         <v>1020</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H208">
         <f t="shared" si="28"/>
@@ -12745,7 +12748,7 @@
         <v>1020</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H209">
         <f t="shared" si="28"/>
@@ -12772,7 +12775,7 @@
         <v>1020</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H210">
         <f t="shared" si="28"/>
@@ -12799,7 +12802,7 @@
         <v>1020</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H211">
         <f t="shared" si="28"/>
@@ -12826,7 +12829,7 @@
         <v>1020</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H212">
         <f t="shared" si="28"/>
@@ -12853,7 +12856,7 @@
         <v>1020</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H213">
         <f t="shared" si="28"/>
@@ -12880,7 +12883,7 @@
         <v>1020</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H214">
         <f t="shared" si="28"/>
@@ -12907,7 +12910,7 @@
         <v>1020</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H215">
         <f t="shared" si="28"/>
@@ -12934,7 +12937,7 @@
         <v>1020</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H216">
         <f t="shared" si="28"/>
@@ -12961,7 +12964,7 @@
         <v>1020</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H217" t="str">
         <f t="shared" si="28"/>
@@ -12988,7 +12991,7 @@
         <v>1020</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H218" t="str">
         <f t="shared" si="28"/>
@@ -13015,7 +13018,7 @@
         <v>1020</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H219" t="str">
         <f t="shared" si="28"/>
@@ -13042,7 +13045,7 @@
         <v>1020</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H220" t="str">
         <f t="shared" si="28"/>
@@ -13069,7 +13072,7 @@
         <v>1020</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H221" t="str">
         <f t="shared" si="28"/>
@@ -13096,7 +13099,7 @@
         <v>1020</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H222" t="str">
         <f t="shared" si="28"/>
@@ -13123,7 +13126,7 @@
         <v>1020</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H223" t="str">
         <f t="shared" si="28"/>
@@ -13150,7 +13153,7 @@
         <v>1020</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H224" t="str">
         <f t="shared" si="28"/>
@@ -13177,7 +13180,7 @@
         <v>1020</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H225" t="str">
         <f t="shared" si="28"/>
@@ -13204,7 +13207,7 @@
         <v>1020</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H226" t="str">
         <f t="shared" si="28"/>
@@ -13231,7 +13234,7 @@
         <v>1020</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H227" t="str">
         <f t="shared" si="28"/>
@@ -13258,7 +13261,7 @@
         <v>1020</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H228">
         <f t="shared" si="28"/>
@@ -13285,7 +13288,7 @@
         <v>1020</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H229">
         <f t="shared" si="28"/>
@@ -13312,7 +13315,7 @@
         <v>1020</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H230">
         <f t="shared" si="28"/>
@@ -13339,7 +13342,7 @@
         <v>1020</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H231">
         <f t="shared" si="28"/>
@@ -13366,7 +13369,7 @@
         <v>1020</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H232">
         <f t="shared" si="28"/>
@@ -13393,7 +13396,7 @@
         <v>1020</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H233">
         <f t="shared" si="28"/>
@@ -13420,7 +13423,7 @@
         <v>1020</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H234">
         <f t="shared" si="28"/>
@@ -13447,7 +13450,7 @@
         <v>1020</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H235">
         <f t="shared" si="28"/>
@@ -13474,7 +13477,7 @@
         <v>1020</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H236">
         <f t="shared" si="28"/>
@@ -13501,7 +13504,7 @@
         <v>1020</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H237">
         <f t="shared" si="28"/>
@@ -13528,7 +13531,7 @@
         <v>1020</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H238">
         <f t="shared" si="28"/>
@@ -13555,7 +13558,7 @@
         <v>1020</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H239">
         <f t="shared" si="28"/>
@@ -13582,7 +13585,7 @@
         <v>1020</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H240" t="str">
         <f t="shared" si="28"/>
@@ -13609,7 +13612,7 @@
         <v>1020</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H241" t="str">
         <f t="shared" si="28"/>
@@ -13636,7 +13639,7 @@
         <v>1020</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" si="28"/>
@@ -13651,7 +13654,7 @@
         <v>734</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>993</v>
@@ -13663,7 +13666,7 @@
         <v>1020</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H243" t="str">
         <f t="shared" si="28"/>
@@ -13678,7 +13681,7 @@
         <v>737</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>994</v>
@@ -13690,7 +13693,7 @@
         <v>1020</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H244" t="str">
         <f t="shared" si="28"/>
@@ -13705,7 +13708,7 @@
         <v>740</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>995</v>
@@ -13717,7 +13720,7 @@
         <v>1020</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H245" t="str">
         <f t="shared" si="28"/>
@@ -13732,7 +13735,7 @@
         <v>743</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>996</v>
@@ -13744,7 +13747,7 @@
         <v>1020</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H246" t="str">
         <f t="shared" si="28"/>
@@ -13759,7 +13762,7 @@
         <v>746</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>997</v>
@@ -13771,7 +13774,7 @@
         <v>1020</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H247" t="str">
         <f t="shared" si="28"/>
@@ -13786,7 +13789,7 @@
         <v>749</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>998</v>
@@ -13798,7 +13801,7 @@
         <v>1020</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H248" t="str">
         <f t="shared" si="28"/>
@@ -13813,7 +13816,7 @@
         <v>752</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>999</v>
@@ -13825,7 +13828,7 @@
         <v>1020</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H249" t="str">
         <f t="shared" si="28"/>
@@ -13840,7 +13843,7 @@
         <v>755</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1000</v>
@@ -13852,7 +13855,7 @@
         <v>1020</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H250" t="str">
         <f t="shared" si="28"/>
@@ -13867,7 +13870,7 @@
         <v>758</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1001</v>
@@ -13879,7 +13882,7 @@
         <v>1020</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H251" t="str">
         <f t="shared" si="28"/>
@@ -13894,7 +13897,7 @@
         <v>761</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1002</v>
@@ -13906,7 +13909,7 @@
         <v>1020</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H252" t="str">
         <f t="shared" si="28"/>
@@ -13921,7 +13924,7 @@
         <v>764</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1003</v>
@@ -13933,7 +13936,7 @@
         <v>1020</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H253" t="str">
         <f t="shared" si="28"/>
@@ -13948,7 +13951,7 @@
         <v>767</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1004</v>
@@ -13960,7 +13963,7 @@
         <v>1020</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H254" t="str">
         <f t="shared" si="28"/>
@@ -13987,7 +13990,7 @@
         <v>1020</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H255" t="str">
         <f t="shared" si="28"/>
@@ -14014,7 +14017,7 @@
         <v>1020</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H256" t="str">
         <f t="shared" si="28"/>
@@ -14029,7 +14032,7 @@
         <v>519</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1007</v>
@@ -14041,7 +14044,7 @@
         <v>1020</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H257" t="str">
         <f t="shared" si="28"/>
@@ -14056,7 +14059,7 @@
         <v>519</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1008</v>
@@ -14068,7 +14071,7 @@
         <v>1020</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H258" t="str">
         <f t="shared" si="28"/>
@@ -14083,7 +14086,7 @@
         <v>780</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1009</v>
@@ -14095,7 +14098,7 @@
         <v>1020</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H259" t="str">
         <f t="shared" si="28"/>
@@ -14104,25 +14107,25 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="D260" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>1174</v>
-      </c>
       <c r="F260" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H260" t="str">
         <f>IF(ISNUMBER(SEARCH("Voiceless",A260)),0, IF(ISNUMBER(SEARCH("Voiced",A260)),1,""))</f>
@@ -14142,7 +14145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20157BDB-48B5-4FAA-8FCC-765F2AC31EBC}">
   <dimension ref="A1:V258"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>

--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcombiths/Documents/GitHub/ipa_features/src/ipa_features/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B378D7-6154-FB45-AC7E-92B7AB7B2916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A84619-0436-1847-87C5-FCDFDBDAAC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="16480" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1178">
   <si>
     <t>Description</t>
   </si>
@@ -3558,13 +3558,19 @@
     <t>0x2205</t>
   </si>
   <si>
-    <t>suprasegmental</t>
-  </si>
-  <si>
     <t>diacritic_role-switcher</t>
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>compound_right</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>boundary</t>
   </si>
 </sst>
 </file>
@@ -4165,7 +4171,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4176,6 +4182,7 @@
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="12.33203125" customWidth="1"/>
@@ -4203,7 +4210,7 @@
         <v>1021</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1022</v>
@@ -10413,7 +10420,7 @@
         <v>1014</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="26"/>
@@ -10440,7 +10447,7 @@
         <v>1014</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="26"/>
@@ -10494,7 +10501,7 @@
         <v>1014</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1074</v>
+        <v>1175</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="26"/>
@@ -10521,7 +10528,7 @@
         <v>1014</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>1074</v>
+        <v>1175</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="26"/>
@@ -10548,7 +10555,7 @@
         <v>1014</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="26"/>
@@ -10575,7 +10582,7 @@
         <v>1014</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="26"/>
@@ -10629,7 +10636,7 @@
         <v>1014</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="26"/>
@@ -11329,7 +11336,7 @@
         <v>1017</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="27"/>

--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcombiths/Documents/GitHub/ipa_features/src/ipa_features/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A84619-0436-1847-87C5-FCDFDBDAAC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B6DEBC-0F43-B747-AB3C-76220CF6E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="16480" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="16380" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="1186">
   <si>
     <t>Description</t>
   </si>
@@ -3571,6 +3571,30 @@
   </si>
   <si>
     <t>boundary</t>
+  </si>
+  <si>
+    <t>̴</t>
+  </si>
+  <si>
+    <t>0x334</t>
+  </si>
+  <si>
+    <t>COMBINING TILDE OVERLAY</t>
+  </si>
+  <si>
+    <t>0x03A</t>
+  </si>
+  <si>
+    <t>NON-SPACING RING ABOVE</t>
+  </si>
+  <si>
+    <t>̊</t>
+  </si>
+  <si>
+    <t>̴̴</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
   </si>
 </sst>
 </file>
@@ -3805,8 +3829,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X260" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:X260" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X262" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:X262" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{634E2ACC-F650-4879-A647-12FAF9317E57}" name="Description" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BAEC8A6F-34A0-4732-BD0F-2F751D247EC8}" name="Name" dataDxfId="5"/>
@@ -4167,11 +4191,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E616C57-35B6-46C5-A285-FD5E9EF1060B}">
-  <dimension ref="A1:X260"/>
+  <dimension ref="A1:X262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14136,6 +14160,60 @@
       </c>
       <c r="H260" t="str">
         <f>IF(ISNUMBER(SEARCH("Voiceless",A260)),0, IF(ISNUMBER(SEARCH("Voiced",A260)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H261" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A261)),0, IF(ISNUMBER(SEARCH("Voiced",A261)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H262" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A262)),0, IF(ISNUMBER(SEARCH("Voiced",A262)),1,""))</f>
         <v/>
       </c>
     </row>

--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcombiths/Documents/GitHub/ipa_features/src/ipa_features/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B6DEBC-0F43-B747-AB3C-76220CF6E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18141DB5-71D3-B448-B289-C2BA8BB33166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="16380" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="IPA" sheetId="1" r:id="rId1"/>
     <sheet name="features_ref" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="1195">
   <si>
     <t>Description</t>
   </si>
@@ -3595,13 +3595,40 @@
   </si>
   <si>
     <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>ᵈ</t>
+  </si>
+  <si>
+    <t>superscript D</t>
+  </si>
+  <si>
+    <t>Modifier letter small D</t>
+  </si>
+  <si>
+    <t>0x0064</t>
+  </si>
+  <si>
+    <t>ᵗ</t>
+  </si>
+  <si>
+    <t>Modifier letter small T</t>
+  </si>
+  <si>
+    <t>superscript T</t>
+  </si>
+  <si>
+    <t>0x0074</t>
+  </si>
+  <si>
+    <t>ᶷ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3626,6 +3653,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3648,7 +3681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3657,6 +3690,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3829,8 +3863,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X262" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:X262" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X265" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:X265" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{634E2ACC-F650-4879-A647-12FAF9317E57}" name="Description" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BAEC8A6F-34A0-4732-BD0F-2F751D247EC8}" name="Name" dataDxfId="5"/>
@@ -4191,11 +4225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E616C57-35B6-46C5-A285-FD5E9EF1060B}">
-  <dimension ref="A1:X262"/>
+  <dimension ref="A1:X265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D262" sqref="D262"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14214,6 +14248,81 @@
       </c>
       <c r="H262" t="str">
         <f>IF(ISNUMBER(SEARCH("Voiceless",A262)),0, IF(ISNUMBER(SEARCH("Voiced",A262)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H263" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A263)),0, IF(ISNUMBER(SEARCH("Voiced",A263)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H264" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A264)),0, IF(ISNUMBER(SEARCH("Voiced",A264)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H265" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A265)),0, IF(ISNUMBER(SEARCH("Voiced",A265)),1,""))</f>
         <v/>
       </c>
     </row>

--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcombiths/Documents/GitHub/ipa_features/src/ipa_features/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18141DB5-71D3-B448-B289-C2BA8BB33166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E8B8E-1EC7-0949-A6F7-260132B47CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="16380" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="25600" windowHeight="14440" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="1207">
   <si>
     <t>Description</t>
   </si>
@@ -3591,9 +3591,6 @@
     <t>̊</t>
   </si>
   <si>
-    <t>̴̴</t>
-  </si>
-  <si>
     <t>UNKNOWN</t>
   </si>
   <si>
@@ -3622,13 +3619,52 @@
   </si>
   <si>
     <t>ᶷ</t>
+  </si>
+  <si>
+    <t>ᵏ</t>
+  </si>
+  <si>
+    <t>◌ᵏ</t>
+  </si>
+  <si>
+    <t>◌ᶷ</t>
+  </si>
+  <si>
+    <t>◌ᵈ</t>
+  </si>
+  <si>
+    <t>◌ᵗ</t>
+  </si>
+  <si>
+    <t>◌̊</t>
+  </si>
+  <si>
+    <t>◌̴̴</t>
+  </si>
+  <si>
+    <t>superscript K</t>
+  </si>
+  <si>
+    <t>superscript ʊ</t>
+  </si>
+  <si>
+    <t>Modifier letter small ʊ</t>
+  </si>
+  <si>
+    <t>Modifier letter small K</t>
+  </si>
+  <si>
+    <t>0x1db7</t>
+  </si>
+  <si>
+    <t>0x1d4f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3653,12 +3689,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Monaco"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3681,7 +3711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3690,7 +3720,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3863,8 +3892,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X265" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:X265" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X266" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:X266" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{634E2ACC-F650-4879-A647-12FAF9317E57}" name="Description" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BAEC8A6F-34A0-4732-BD0F-2F751D247EC8}" name="Name" dataDxfId="5"/>
@@ -4225,11 +4254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E616C57-35B6-46C5-A285-FD5E9EF1060B}">
-  <dimension ref="A1:X265"/>
+  <dimension ref="A1:X266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B264" sqref="B264"/>
+      <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14193,7 +14222,7 @@
         <v>1073</v>
       </c>
       <c r="H260" t="str">
-        <f>IF(ISNUMBER(SEARCH("Voiceless",A260)),0, IF(ISNUMBER(SEARCH("Voiced",A260)),1,""))</f>
+        <f t="shared" ref="H260:H265" si="29">IF(ISNUMBER(SEARCH("Voiceless",A260)),0, IF(ISNUMBER(SEARCH("Voiced",A260)),1,""))</f>
         <v/>
       </c>
     </row>
@@ -14208,7 +14237,7 @@
         <v>1178</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1184</v>
+        <v>1200</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>1179</v>
@@ -14220,13 +14249,13 @@
         <v>1074</v>
       </c>
       <c r="H261" t="str">
-        <f>IF(ISNUMBER(SEARCH("Voiceless",A261)),0, IF(ISNUMBER(SEARCH("Voiced",A261)),1,""))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>1182</v>
@@ -14235,7 +14264,7 @@
         <v>1183</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1183</v>
+        <v>1199</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>1181</v>
@@ -14247,25 +14276,25 @@
         <v>1074</v>
       </c>
       <c r="H262" t="str">
-        <f>IF(ISNUMBER(SEARCH("Voiceless",A262)),0, IF(ISNUMBER(SEARCH("Voiced",A262)),1,""))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>1189</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>1018</v>
@@ -14274,25 +14303,25 @@
         <v>1074</v>
       </c>
       <c r="H263" t="str">
-        <f>IF(ISNUMBER(SEARCH("Voiceless",A263)),0, IF(ISNUMBER(SEARCH("Voiced",A263)),1,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>1192</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>1193</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>1018</v>
@@ -14301,20 +14330,26 @@
         <v>1074</v>
       </c>
       <c r="H264" t="str">
-        <f>IF(ISNUMBER(SEARCH("Voiceless",A264)),0, IF(ISNUMBER(SEARCH("Voiced",A264)),1,""))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
+      <c r="A265" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1202</v>
+      </c>
       <c r="C265" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E265" s="1"/>
+        <v>1196</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1205</v>
+      </c>
       <c r="F265" s="1" t="s">
         <v>1018</v>
       </c>
@@ -14322,7 +14357,34 @@
         <v>1074</v>
       </c>
       <c r="H265" t="str">
-        <f>IF(ISNUMBER(SEARCH("Voiceless",A265)),0, IF(ISNUMBER(SEARCH("Voiced",A265)),1,""))</f>
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H266" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A266)),0, IF(ISNUMBER(SEARCH("Voiced",A266)),1,""))</f>
         <v/>
       </c>
     </row>

--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcombiths/Documents/GitHub/ipa_features/src/ipa_features/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E8B8E-1EC7-0949-A6F7-260132B47CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92254A38-5BC4-4644-8C14-E751B24DD581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="25600" windowHeight="14440" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
+    <workbookView xWindow="3860" yWindow="560" windowWidth="17880" windowHeight="14500" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="1242">
   <si>
     <t>Description</t>
   </si>
@@ -3658,6 +3658,111 @@
   </si>
   <si>
     <t>0x1d4f</t>
+  </si>
+  <si>
+    <t>ᶿ</t>
+  </si>
+  <si>
+    <t>0x1dbf</t>
+  </si>
+  <si>
+    <t>superscript θ</t>
+  </si>
+  <si>
+    <t>◌ᶿ</t>
+  </si>
+  <si>
+    <t>̡</t>
+  </si>
+  <si>
+    <t>COMBINING PALATALIZED HOOK BELOW</t>
+  </si>
+  <si>
+    <t>̡◌</t>
+  </si>
+  <si>
+    <t>0x0321</t>
+  </si>
+  <si>
+    <t>Modifier letter small θ</t>
+  </si>
+  <si>
+    <t>Modifier letter small ɹ</t>
+  </si>
+  <si>
+    <t>ʵ</t>
+  </si>
+  <si>
+    <t>0x02b5</t>
+  </si>
+  <si>
+    <t>Modifier letter small turned R with hook</t>
+  </si>
+  <si>
+    <t>superscript ɻ</t>
+  </si>
+  <si>
+    <t>◌ʵ</t>
+  </si>
+  <si>
+    <t>˺</t>
+  </si>
+  <si>
+    <t>◌˺</t>
+  </si>
+  <si>
+    <t>0x02fa</t>
+  </si>
+  <si>
+    <t>MODIFIER LETTER END HIGH TONE</t>
+  </si>
+  <si>
+    <t>End high tone</t>
+  </si>
+  <si>
+    <t>ˣ</t>
+  </si>
+  <si>
+    <t>Modifier letter small X</t>
+  </si>
+  <si>
+    <t>superscript X</t>
+  </si>
+  <si>
+    <t>◌ˣ</t>
+  </si>
+  <si>
+    <t>0x02e3</t>
+  </si>
+  <si>
+    <t>ᵍ</t>
+  </si>
+  <si>
+    <t>0x1d4d</t>
+  </si>
+  <si>
+    <t>Modifier letter small G</t>
+  </si>
+  <si>
+    <t>superscript G</t>
+  </si>
+  <si>
+    <t>◌ᵍ</t>
+  </si>
+  <si>
+    <t>0x02c3</t>
+  </si>
+  <si>
+    <t>Modifier letter right arrowhead</t>
+  </si>
+  <si>
+    <t>Backed</t>
+  </si>
+  <si>
+    <t>◌˃</t>
+  </si>
+  <si>
+    <t>˃</t>
   </si>
 </sst>
 </file>
@@ -3892,8 +3997,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X266" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:X266" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X273" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:X273" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{634E2ACC-F650-4879-A647-12FAF9317E57}" name="Description" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BAEC8A6F-34A0-4732-BD0F-2F751D247EC8}" name="Name" dataDxfId="5"/>
@@ -4254,11 +4359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E616C57-35B6-46C5-A285-FD5E9EF1060B}">
-  <dimension ref="A1:X266"/>
+  <dimension ref="A1:X273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10866,7 +10971,9 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>1216</v>
+      </c>
       <c r="B136" s="1" t="s">
         <v>427</v>
       </c>
@@ -14385,6 +14492,195 @@
       </c>
       <c r="H266" t="str">
         <f>IF(ISNUMBER(SEARCH("Voiceless",A266)),0, IF(ISNUMBER(SEARCH("Voiced",A266)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H267" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A267)),0, IF(ISNUMBER(SEARCH("Voiced",A267)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H268" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A268)),0, IF(ISNUMBER(SEARCH("Voiced",A268)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H269" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A269)),0, IF(ISNUMBER(SEARCH("Voiced",A269)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H270" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",B270)),0, IF(ISNUMBER(SEARCH("Voiced",B270)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H271" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A271)),0, IF(ISNUMBER(SEARCH("Voiced",A271)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H272" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A272)),0, IF(ISNUMBER(SEARCH("Voiced",A272)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H273" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A273)),0, IF(ISNUMBER(SEARCH("Voiced",A273)),1,""))</f>
         <v/>
       </c>
     </row>

--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcombiths/Documents/GitHub/ipa_features/src/ipa_features/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcombiths\Documents\github\ipa_features\src\ipa_features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92254A38-5BC4-4644-8C14-E751B24DD581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5BF51-E14A-4AC2-919A-FB40EECD4310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="560" windowWidth="17880" windowHeight="14500" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
+    <workbookView xWindow="0" yWindow="1395" windowWidth="29010" windowHeight="15345" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPA" sheetId="1" r:id="rId1"/>
@@ -4362,27 +4362,27 @@
   <dimension ref="A1:X273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C275" sqref="C275"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>100</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>127</v>
       </c>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>133</v>
       </c>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>136</v>
       </c>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>139</v>
       </c>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>146</v>
       </c>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>149</v>
       </c>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>152</v>
       </c>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>155</v>
       </c>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>158</v>
       </c>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>161</v>
       </c>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>164</v>
       </c>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>167</v>
       </c>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>170</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>173</v>
       </c>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>176</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>179</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>182</v>
       </c>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>182</v>
       </c>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>187</v>
       </c>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>190</v>
       </c>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>193</v>
       </c>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="X61" s="2"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>196</v>
       </c>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>199</v>
       </c>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="X63" s="2"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>202</v>
       </c>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="X64" s="2"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>206</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>209</v>
       </c>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="X66" s="2"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>212</v>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="X67" s="2"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>215</v>
       </c>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="X68" s="2"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>218</v>
       </c>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="X69" s="2"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>221</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>225</v>
       </c>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="X71" s="2"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>228</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="X72" s="2"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>231</v>
       </c>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="X73" s="2"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>234</v>
       </c>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>237</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="X75" s="2"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>240</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>244</v>
       </c>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="X77" s="2"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>247</v>
       </c>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="X78" s="2"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>250</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>254</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>257</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>259</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>262</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>265</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>268</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>272</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>275</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>278</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>281</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>284</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>287</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>290</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>294</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>298</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>301</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>304</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>307</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>311</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>314</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>317</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>320</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>324</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>328</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>331</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>334</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>336</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>340</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>343</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>346</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>349</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>353</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>356</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>359</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>359</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>364</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>367</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>371</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>374</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>378</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>381</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>384</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>387</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>390</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>392</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>395</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>395</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>400</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>404</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>407</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>410</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>413</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>416</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>418</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>421</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>424</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1216</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>429</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>432</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>435</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>438</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>441</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>444</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>447</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>450</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>453</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>455</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>458</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>461</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>464</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>467</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>470</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>473</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>476</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>479</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>482</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>485</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>488</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>491</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>494</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>497</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>500</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>503</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>506</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>509</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>512</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>515</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>518</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>521</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>524</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>527</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>530</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>533</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>536</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>539</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>542</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>545</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>548</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>551</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>554</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>554</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>559</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>559</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>564</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>567</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>570</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>573</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>576</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>579</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>581</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
@@ -12451,7 +12451,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
@@ -12474,7 +12474,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
@@ -12497,7 +12497,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>587</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>590</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>593</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>596</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>599</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>602</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>605</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>608</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>611</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>614</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>617</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>620</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>623</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>626</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>629</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>631</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>1073</v>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>632</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>634</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>1073</v>
@@ -12929,7 +12929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>635</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>637</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>1073</v>
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>638</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>640</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>1073</v>
@@ -12983,7 +12983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>641</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>643</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>1073</v>
@@ -13010,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>644</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>646</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>1073</v>
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>647</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>649</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>1073</v>
@@ -13064,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>650</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>652</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>1073</v>
@@ -13091,7 +13091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>653</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>655</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>1073</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>656</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>658</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>1073</v>
@@ -13145,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>659</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>661</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>1073</v>
@@ -13172,7 +13172,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>662</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>664</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>1073</v>
@@ -13199,7 +13199,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>665</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>667</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>1073</v>
@@ -13226,7 +13226,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>668</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>670</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>1073</v>
@@ -13253,7 +13253,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>671</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>673</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>1073</v>
@@ -13280,7 +13280,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>674</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>676</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>1073</v>
@@ -13307,7 +13307,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>677</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>679</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>1073</v>
@@ -13334,7 +13334,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>680</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>682</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>1073</v>
@@ -13361,7 +13361,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>683</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>685</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>1073</v>
@@ -13388,7 +13388,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>686</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>688</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>1073</v>
@@ -13415,7 +13415,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>689</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>691</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>1073</v>
@@ -13442,7 +13442,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>149</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>693</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>1073</v>
@@ -13469,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>152</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>695</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>1073</v>
@@ -13496,7 +13496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>696</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>698</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>1073</v>
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>699</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>701</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>1073</v>
@@ -13550,7 +13550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>702</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>704</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>1073</v>
@@ -13577,7 +13577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>705</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>707</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>1073</v>
@@ -13604,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>708</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>710</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>1073</v>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>711</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>713</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>1073</v>
@@ -13658,7 +13658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>714</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>716</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>1073</v>
@@ -13685,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>717</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>719</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>1073</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>720</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>722</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>1073</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>723</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>725</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>1073</v>
@@ -13766,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>726</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>728</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>1073</v>
@@ -13793,7 +13793,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>729</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>730</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>1073</v>
@@ -13820,7 +13820,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>731</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>732</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>1073</v>
@@ -13847,7 +13847,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>733</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>735</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>1074</v>
@@ -13874,7 +13874,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>736</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>738</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>1074</v>
@@ -13901,7 +13901,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>739</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>741</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>1074</v>
@@ -13928,7 +13928,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>742</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>744</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>1074</v>
@@ -13955,7 +13955,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>745</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>747</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>1074</v>
@@ -13982,7 +13982,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>748</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>750</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>1074</v>
@@ -14009,7 +14009,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>751</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>753</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>1074</v>
@@ -14036,7 +14036,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>754</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>756</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>1074</v>
@@ -14063,7 +14063,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>757</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>759</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>1074</v>
@@ -14090,7 +14090,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>760</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>762</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>1074</v>
@@ -14117,7 +14117,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>763</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>765</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>1074</v>
@@ -14144,7 +14144,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>766</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>768</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>1074</v>
@@ -14171,7 +14171,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>769</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>771</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>1074</v>
@@ -14198,7 +14198,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>772</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>774</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>1074</v>
@@ -14225,7 +14225,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>775</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>776</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>1074</v>
@@ -14252,7 +14252,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>777</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>778</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>1075</v>
@@ -14279,7 +14279,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>779</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>781</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>1074</v>
@@ -14306,7 +14306,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>1169</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>1054</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1184</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1187</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1190</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1203</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1204</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1215</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>429</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>1219</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>1226</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1228</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>1234</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1239</v>
       </c>
@@ -14701,24 +14701,24 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="2"/>
-    <col min="7" max="7" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="2" customWidth="1"/>
-    <col min="9" max="12" width="9.1640625" style="2"/>
-    <col min="13" max="13" width="10.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="2"/>
-    <col min="15" max="15" width="9.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="2"/>
+    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="2" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="10.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="9.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>89</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>92</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>100</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>120</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>123</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>130</v>
       </c>
@@ -16164,7 +16164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>133</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>136</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>139</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>146</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>149</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>152</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>155</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>158</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>161</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>164</v>
       </c>
@@ -16558,7 +16558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>167</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>170</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>173</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>176</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>179</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>182</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>182</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>187</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>190</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>193</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>196</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>199</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>202</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>206</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>209</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>212</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>215</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>218</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>221</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>225</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>228</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>231</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>234</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>237</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>240</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>244</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>247</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>250</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>254</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>257</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>259</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>262</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>265</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>268</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>272</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>275</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>278</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>281</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>284</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>287</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>290</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>294</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>298</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>301</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>304</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>307</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>311</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>314</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>317</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>320</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>324</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>328</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>331</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>334</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>336</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>340</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>343</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>346</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>349</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>353</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>356</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>359</v>
       </c>
@@ -18980,7 +18980,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>359</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>364</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>367</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>371</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>374</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>378</v>
       </c>
@@ -19244,7 +19244,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>381</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>384</v>
       </c>
@@ -19332,7 +19332,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>387</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>390</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>392</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>395</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>395</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>400</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>404</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>407</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>410</v>
       </c>
@@ -19512,7 +19512,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>413</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>416</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>418</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>421</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>424</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
         <v>427</v>
       </c>
@@ -19629,7 +19629,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>429</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>432</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>435</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>438</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>441</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>444</v>
       </c>
@@ -19749,7 +19749,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>447</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>450</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>453</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>455</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>458</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>461</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>464</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>467</v>
       </c>
@@ -19909,7 +19909,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>470</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>473</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>476</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>479</v>
       </c>
@@ -19989,7 +19989,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>482</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>485</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>488</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>491</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>494</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>497</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>500</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>503</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>506</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>509</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>512</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>515</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>518</v>
       </c>
@@ -20249,7 +20249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>521</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>524</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>527</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>530</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>533</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>536</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>539</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>542</v>
       </c>
@@ -20409,7 +20409,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>545</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>548</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>551</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>554</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>554</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>559</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>559</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>564</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>567</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>570</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>573</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>576</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>579</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>581</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C189" s="2" t="s">
         <v>940</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C190" s="2" t="s">
         <v>941</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C191" s="2" t="s">
         <v>942</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>587</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>590</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>593</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>596</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>599</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>602</v>
       </c>
@@ -20851,7 +20851,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>605</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>608</v>
       </c>
@@ -20891,7 +20891,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>611</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>614</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>617</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>620</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>623</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>626</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>629</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>632</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>635</v>
       </c>
@@ -21071,7 +21071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>638</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>641</v>
       </c>
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>644</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>647</v>
       </c>
@@ -21151,7 +21151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>650</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>653</v>
       </c>
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>656</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>659</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>662</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>665</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>668</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>671</v>
       </c>
@@ -21311,7 +21311,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>674</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>677</v>
       </c>
@@ -21351,7 +21351,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>680</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>683</v>
       </c>
@@ -21391,7 +21391,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>686</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>689</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>149</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>152</v>
       </c>
@@ -21471,7 +21471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>696</v>
       </c>
@@ -21491,7 +21491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>699</v>
       </c>
@@ -21511,7 +21511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>702</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>705</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>708</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>711</v>
       </c>
@@ -21591,7 +21591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>714</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>717</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>720</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>723</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>726</v>
       </c>
@@ -21691,7 +21691,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>729</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>731</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>733</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>736</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>739</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>742</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>745</v>
       </c>
@@ -21831,7 +21831,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>748</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>751</v>
       </c>
@@ -21871,7 +21871,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>754</v>
       </c>
@@ -21891,7 +21891,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>757</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>760</v>
       </c>
@@ -21931,7 +21931,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>763</v>
       </c>
@@ -21951,7 +21951,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>766</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>769</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>772</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>775</v>
       </c>
@@ -22031,7 +22031,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>777</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>779</v>
       </c>

--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcombiths\Documents\github\ipa_features\src\ipa_features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5BF51-E14A-4AC2-919A-FB40EECD4310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA680E07-42C4-455B-A489-FCC2DB711B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1395" windowWidth="29010" windowHeight="15345" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
+    <workbookView xWindow="76680" yWindow="-3255" windowWidth="29040" windowHeight="15720" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="1245">
   <si>
     <t>Description</t>
   </si>
@@ -3763,6 +3763,15 @@
   </si>
   <si>
     <t>˃</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Unintelligible cover symbol</t>
+  </si>
+  <si>
+    <t>unintelligible cover symbol</t>
   </si>
 </sst>
 </file>
@@ -3997,8 +4006,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X273" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:X273" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X274" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:X274" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{634E2ACC-F650-4879-A647-12FAF9317E57}" name="Description" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BAEC8A6F-34A0-4732-BD0F-2F751D247EC8}" name="Name" dataDxfId="5"/>
@@ -4359,11 +4368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E616C57-35B6-46C5-A285-FD5E9EF1060B}">
-  <dimension ref="A1:X273"/>
+  <dimension ref="A1:X274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14681,6 +14690,31 @@
       </c>
       <c r="H273" t="str">
         <f>IF(ISNUMBER(SEARCH("Voiceless",A273)),0, IF(ISNUMBER(SEARCH("Voiced",A273)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H274" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A274)),0, IF(ISNUMBER(SEARCH("Voiced",A274)),1,""))</f>
         <v/>
       </c>
     </row>

--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcombiths\Documents\github\ipa_features\src\ipa_features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA680E07-42C4-455B-A489-FCC2DB711B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2C047-6E46-486C-8E6E-EC09EF446B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76680" yWindow="-3255" windowWidth="29040" windowHeight="15720" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
+    <workbookView xWindow="10560" yWindow="1620" windowWidth="21600" windowHeight="16305" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="1258">
   <si>
     <t>Description</t>
   </si>
@@ -3772,6 +3772,45 @@
   </si>
   <si>
     <t>unintelligible cover symbol</t>
+  </si>
+  <si>
+    <t>ᵖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᵖ </t>
+  </si>
+  <si>
+    <t>ᵇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ᶦ </t>
+  </si>
+  <si>
+    <t>ᶦ</t>
+  </si>
+  <si>
+    <t>̱</t>
+  </si>
+  <si>
+    <t>ʶ</t>
+  </si>
+  <si>
+    <t>0x1d56</t>
+  </si>
+  <si>
+    <t>0x‎002a</t>
+  </si>
+  <si>
+    <t>0x1d47</t>
+  </si>
+  <si>
+    <t>0x1da6</t>
+  </si>
+  <si>
+    <t>0x0331</t>
+  </si>
+  <si>
+    <t>0x02b6</t>
   </si>
 </sst>
 </file>
@@ -4006,8 +4045,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X274" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:X274" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X279" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:X279" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{634E2ACC-F650-4879-A647-12FAF9317E57}" name="Description" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BAEC8A6F-34A0-4732-BD0F-2F751D247EC8}" name="Name" dataDxfId="5"/>
@@ -4368,11 +4407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E616C57-35B6-46C5-A285-FD5E9EF1060B}">
-  <dimension ref="A1:X274"/>
+  <dimension ref="A1:X279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14706,7 +14745,9 @@
       <c r="D274" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="E274" s="1"/>
+      <c r="E274" s="1" t="s">
+        <v>1253</v>
+      </c>
       <c r="F274" s="1" t="s">
         <v>1169</v>
       </c>
@@ -14715,6 +14756,141 @@
       </c>
       <c r="H274" t="str">
         <f>IF(ISNUMBER(SEARCH("Voiceless",A274)),0, IF(ISNUMBER(SEARCH("Voiced",A274)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H275" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A275)),0, IF(ISNUMBER(SEARCH("Voiced",A275)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H276" t="str">
+        <f t="shared" ref="H276:H279" si="30">IF(ISNUMBER(SEARCH("Voiceless",A276)),0, IF(ISNUMBER(SEARCH("Voiced",A276)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H277" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H278" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H279" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>

--- a/src/ipa_features/IPA_Symbol_Table.xlsx
+++ b/src/ipa_features/IPA_Symbol_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pcombiths/Documents/GitHub/ipa_features/src/ipa_features/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F67DA1-14B6-624E-AF10-50C1EFD2433B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60826F3C-A544-BF49-AE63-D172A397A685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="16980" xr2:uid="{6C036820-CBD9-4851-A4E3-4573182BB3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1280">
   <si>
     <t>Description</t>
   </si>
@@ -3573,9 +3573,6 @@
     <t>0x02b5</t>
   </si>
   <si>
-    <t>Modifier letter small turned R with hook</t>
-  </si>
-  <si>
     <t>superscript ɻ</t>
   </si>
   <si>
@@ -3600,9 +3597,6 @@
     <t>ˣ</t>
   </si>
   <si>
-    <t>Modifier letter small X</t>
-  </si>
-  <si>
     <t>superscript X</t>
   </si>
   <si>
@@ -3618,9 +3612,6 @@
     <t>0x1d4d</t>
   </si>
   <si>
-    <t>Modifier letter small G</t>
-  </si>
-  <si>
     <t>superscript G</t>
   </si>
   <si>
@@ -3660,9 +3651,6 @@
     <t>ᵇ</t>
   </si>
   <si>
-    <t xml:space="preserve">ᶦ </t>
-  </si>
-  <si>
     <t>ᶦ</t>
   </si>
   <si>
@@ -3811,6 +3799,84 @@
   </si>
   <si>
     <t>Hooktop H - subscript and superscript bridge</t>
+  </si>
+  <si>
+    <t>ʱ</t>
+  </si>
+  <si>
+    <t>0x02B1</t>
+  </si>
+  <si>
+    <t>̒</t>
+  </si>
+  <si>
+    <t>0x0312</t>
+  </si>
+  <si>
+    <t>COMBINING TURNED COMMA ABOVE</t>
+  </si>
+  <si>
+    <t>◌̒</t>
+  </si>
+  <si>
+    <t>◌ͫ</t>
+  </si>
+  <si>
+    <t>COMBINING LATIN SMALL LETTER M</t>
+  </si>
+  <si>
+    <t>0x036B</t>
+  </si>
+  <si>
+    <t>ͫ</t>
+  </si>
+  <si>
+    <t>Modifier letter small capital I</t>
+  </si>
+  <si>
+    <t>superscript capital I</t>
+  </si>
+  <si>
+    <t>superscript B</t>
+  </si>
+  <si>
+    <t>superscript P</t>
+  </si>
+  <si>
+    <t>Combining macron below</t>
+  </si>
+  <si>
+    <t>superscript ɦ</t>
+  </si>
+  <si>
+    <t>superscript ʁ</t>
+  </si>
+  <si>
+    <t>Modifier aspirated</t>
+  </si>
+  <si>
+    <t>Modifier letter small ɦ Breathy voiced</t>
+  </si>
+  <si>
+    <t>Modifier letter small ʁ rhotic</t>
+  </si>
+  <si>
+    <t>Modifier letter small M nasal</t>
+  </si>
+  <si>
+    <t>Modifier letter small P labial</t>
+  </si>
+  <si>
+    <t>Modifier letter small B labial</t>
+  </si>
+  <si>
+    <t>Modifier letter small G dorsal</t>
+  </si>
+  <si>
+    <t>Modifier letter small X velar</t>
+  </si>
+  <si>
+    <t>Modifier letter small turned R with hook rhotic</t>
   </si>
 </sst>
 </file>
@@ -3864,7 +3930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3872,6 +3938,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4045,8 +4114,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X279" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:X279" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D043D4FE-F354-4BBC-9B2E-170C38C7EE75}" name="Table1" displayName="Table1" ref="A1:X282" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:X282" xr:uid="{0D396139-44B1-4D2F-ADA9-6F97CAD5E738}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{634E2ACC-F650-4879-A647-12FAF9317E57}" name="Description" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BAEC8A6F-34A0-4732-BD0F-2F751D247EC8}" name="Name" dataDxfId="5"/>
@@ -4407,11 +4476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E616C57-35B6-46C5-A285-FD5E9EF1060B}">
-  <dimension ref="A1:X279"/>
+  <dimension ref="A1:X282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="157" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5470,7 +5539,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>752</v>
@@ -6014,7 +6083,7 @@
         <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>758</v>
@@ -7692,7 +7761,7 @@
         <v>210</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>788</v>
@@ -7904,7 +7973,7 @@
         <v>222</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>791</v>
@@ -8363,7 +8432,7 @@
         <v>250</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>798</v>
@@ -10291,7 +10360,7 @@
         <v>362</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>363</v>
@@ -11563,7 +11632,7 @@
         <v>479</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>1062</v>
@@ -11614,7 +11683,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>484</v>
@@ -12427,7 +12496,7 @@
         <v>571</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>1094</v>
@@ -12928,7 +12997,7 @@
         <v>621</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>916</v>
@@ -12955,7 +13024,7 @@
         <v>623</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>917</v>
@@ -12982,7 +13051,7 @@
         <v>625</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>918</v>
@@ -13009,7 +13078,7 @@
         <v>627</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>919</v>
@@ -13036,7 +13105,7 @@
         <v>629</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>920</v>
@@ -13063,7 +13132,7 @@
         <v>631</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>921</v>
@@ -13090,7 +13159,7 @@
         <v>633</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>922</v>
@@ -13117,7 +13186,7 @@
         <v>635</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>923</v>
@@ -13144,7 +13213,7 @@
         <v>637</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>924</v>
@@ -13171,7 +13240,7 @@
         <v>639</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>925</v>
@@ -13198,7 +13267,7 @@
         <v>641</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>926</v>
@@ -13225,7 +13294,7 @@
         <v>643</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>927</v>
@@ -13252,7 +13321,7 @@
         <v>645</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>928</v>
@@ -13279,7 +13348,7 @@
         <v>647</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>929</v>
@@ -13306,7 +13375,7 @@
         <v>649</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>930</v>
@@ -13333,7 +13402,7 @@
         <v>651</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>931</v>
@@ -13360,7 +13429,7 @@
         <v>653</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>932</v>
@@ -13387,7 +13456,7 @@
         <v>655</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>933</v>
@@ -13414,7 +13483,7 @@
         <v>657</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>934</v>
@@ -13441,7 +13510,7 @@
         <v>659</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>935</v>
@@ -13468,7 +13537,7 @@
         <v>661</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>936</v>
@@ -13549,7 +13618,7 @@
         <v>667</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>939</v>
@@ -13576,7 +13645,7 @@
         <v>669</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>940</v>
@@ -13603,7 +13672,7 @@
         <v>671</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>941</v>
@@ -13630,7 +13699,7 @@
         <v>673</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>942</v>
@@ -13657,7 +13726,7 @@
         <v>675</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>943</v>
@@ -13684,7 +13753,7 @@
         <v>677</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>944</v>
@@ -13711,7 +13780,7 @@
         <v>679</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>945</v>
@@ -13738,7 +13807,7 @@
         <v>681</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>946</v>
@@ -13765,7 +13834,7 @@
         <v>683</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>947</v>
@@ -13792,7 +13861,7 @@
         <v>685</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>948</v>
@@ -13954,7 +14023,7 @@
         <v>700</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>1111</v>
@@ -14599,16 +14668,16 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>1176</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>1177</v>
@@ -14626,19 +14695,19 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C270" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>1183</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>978</v>
@@ -14653,19 +14722,19 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>1190</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>977</v>
@@ -14680,19 +14749,19 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>1193</v>
+        <v>1277</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>977</v>
@@ -14707,19 +14776,19 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>1200</v>
-      </c>
       <c r="D273" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>977</v>
@@ -14734,19 +14803,19 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>1128</v>
@@ -14761,19 +14830,19 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>1205</v>
+        <v>1275</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1205</v>
+        <v>1267</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>977</v>
@@ -14788,19 +14857,19 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>1206</v>
+        <v>1276</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1206</v>
+        <v>1266</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>977</v>
@@ -14815,19 +14884,19 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>1207</v>
+        <v>1264</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1208</v>
+        <v>1265</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>977</v>
@@ -14842,19 +14911,19 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>1209</v>
+        <v>1268</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1209</v>
+        <v>1268</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>977</v>
@@ -14869,19 +14938,19 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>1210</v>
+        <v>1273</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1210</v>
+        <v>1270</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>977</v>
@@ -14891,6 +14960,87 @@
       </c>
       <c r="H279" t="str">
         <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H280">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A280)),0, IF(ISNUMBER(SEARCH("Voiced",A280)),1,""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H281" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A281)),0, IF(ISNUMBER(SEARCH("Voiced",A281)),1,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H282" t="str">
+        <f>IF(ISNUMBER(SEARCH("Voiceless",A282)),0, IF(ISNUMBER(SEARCH("Voiced",A282)),1,""))</f>
         <v/>
       </c>
     </row>
@@ -15687,7 +15837,7 @@
         <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>752</v>
@@ -16096,7 +16246,7 @@
         <v>106</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>758</v>
@@ -17337,7 +17487,7 @@
         <v>210</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>788</v>
@@ -17498,7 +17648,7 @@
         <v>222</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>791</v>
@@ -17843,7 +17993,7 @@
         <v>250</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>798</v>
@@ -19283,7 +19433,7 @@
         <v>362</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>363</v>
@@ -20224,7 +20374,7 @@
         <v>479</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>865</v>
@@ -20261,7 +20411,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>484</v>
@@ -20864,7 +21014,7 @@
         <v>571</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>897</v>
@@ -21226,7 +21376,7 @@
         <v>621</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>916</v>
@@ -21246,7 +21396,7 @@
         <v>623</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>917</v>
@@ -21266,7 +21416,7 @@
         <v>625</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>918</v>
@@ -21286,7 +21436,7 @@
         <v>627</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>919</v>
@@ -21306,7 +21456,7 @@
         <v>629</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>920</v>
@@ -21326,7 +21476,7 @@
         <v>631</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>921</v>
@@ -21346,7 +21496,7 @@
         <v>633</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>922</v>
@@ -21366,7 +21516,7 @@
         <v>635</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>923</v>
@@ -21386,7 +21536,7 @@
         <v>637</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>924</v>
@@ -21406,7 +21556,7 @@
         <v>639</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>925</v>
@@ -21426,7 +21576,7 @@
         <v>641</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>926</v>
@@ -21446,7 +21596,7 @@
         <v>643</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>927</v>
@@ -21466,7 +21616,7 @@
         <v>645</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>928</v>
@@ -21486,7 +21636,7 @@
         <v>647</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>929</v>
@@ -21506,7 +21656,7 @@
         <v>649</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>930</v>
@@ -21526,7 +21676,7 @@
         <v>651</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>931</v>
@@ -21546,7 +21696,7 @@
         <v>653</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>932</v>
@@ -21566,7 +21716,7 @@
         <v>655</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>933</v>
@@ -21586,7 +21736,7 @@
         <v>657</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>934</v>
@@ -21606,7 +21756,7 @@
         <v>659</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>935</v>
@@ -21626,7 +21776,7 @@
         <v>661</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>936</v>
@@ -21686,7 +21836,7 @@
         <v>667</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>939</v>
@@ -21706,7 +21856,7 @@
         <v>669</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>940</v>
@@ -21726,7 +21876,7 @@
         <v>671</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>941</v>
@@ -21746,7 +21896,7 @@
         <v>673</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>942</v>
@@ -21766,7 +21916,7 @@
         <v>675</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>943</v>
@@ -21786,7 +21936,7 @@
         <v>677</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>944</v>
@@ -21806,7 +21956,7 @@
         <v>679</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>945</v>
@@ -21826,7 +21976,7 @@
         <v>681</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>946</v>
@@ -21846,7 +21996,7 @@
         <v>683</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>947</v>
@@ -21866,7 +22016,7 @@
         <v>685</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>948</v>
@@ -21986,7 +22136,7 @@
         <v>700</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>954</v>
